--- a/indicadores/tablas/pob/530206_ascendencia.xlsx
+++ b/indicadores/tablas/pob/530206_ascendencia.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -24,6 +24,15 @@
     <t xml:space="preserve">No afrodescendiente</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -70,9 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -119,10 +125,17 @@
 Los indicadores de trabajo y seguridad social del año 2020 se construyen con la encuesta presencial realizada hasta marzo de 2020 y posteriormente con la encuesta telefónica panel (siempre que la información haya sido incluida en el formulario). Para el 2021, se calculan a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre de 2021 el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
   </si>
   <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE</t>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -473,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>13.5</v>
+        <v>10.7</v>
       </c>
       <c r="C2" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="3">
@@ -484,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>14.3</v>
+        <v>12.8</v>
       </c>
       <c r="C3" t="n">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="4">
@@ -495,10 +508,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>12.6</v>
+        <v>11.3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5">
@@ -506,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>11.4</v>
+        <v>13.5</v>
       </c>
       <c r="C5" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9</v>
+        <v>14.3</v>
       </c>
       <c r="C6" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +552,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="C8" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>13.3</v>
+        <v>10.9</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +574,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="C10" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -572,10 +585,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3</v>
+        <v>13.4</v>
       </c>
       <c r="C11" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +596,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>19.5</v>
+        <v>13.3</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -594,10 +607,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>26.1</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="14">
@@ -605,10 +618,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>30.2</v>
+        <v>18.3</v>
       </c>
       <c r="C14" t="n">
-        <v>13.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="15">
@@ -616,10 +629,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>32.9</v>
+        <v>19.5</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -627,10 +640,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>41.3</v>
+        <v>26.1</v>
       </c>
       <c r="C16" t="n">
-        <v>19.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="17">
@@ -638,9 +651,42 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
         <v>43.9</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>22.5</v>
       </c>
     </row>
@@ -660,82 +706,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
